--- a/biology/Histoire de la zoologie et de la botanique/L.F.Hend/L.F.Hend..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/L.F.Hend/L.F.Hend..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Forniquet Henderson, né le 17 septembre 1853 à Roxbury (Massachusetts) et mort le 18 juin 1942 à Puyallup, est un botaniste et ptéridologue américain qui fit plusieurs expéditions botaniques dans l'État de Washington, l'Oregon et l'Idaho, récoltant ainsi des dizaines de milliers de spécimens qui furent soigneusement décrits et qui se trouvent aujourd'hui à l'université d'État de l'Oregon, à l'université de Washington, à l'herbier national et à l'herbier Gray de l'Harvard University Herbaria.
 Louis F. Henderson était le petit-fils du sénateur du Mississippi, John Henderson. Sa mère, née Catherine Leland, était issue d'une famille éminente du Massachusetts et son père, John Henderson Jr., était avocat à La Nouvelle-Orléans. Louis F. Henderson était diplômé ès sciences de l'université Cornell.
@@ -512,35 +524,37 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plus de deux cents espèces furent nommées en son honneur, parmi lesquelles :
-(Apiaceae) Aletes hendersonii (J.M.Coult. &amp; Rose) W.A.Weber[1]
-(Apocynaceae) Poacynum hendersonii Woodson[2]
-(Araceae) Caladium hendersonii hort. ex Engl.[3]
-(Aspleniaceae) ×Asplenophyllitis hendersonii (Houlston &amp; T.Moore) D.E.Mey.[4]
-(Asteraceae) Antennaria hendersonii Piper[5]
-(Boraginaceae) Lappula hendersonii Piper[6]
-(Clethraceae) Clethra hendersonii Sleumer[7]
-(Dilleniaceae) Hibbertia hendersonii S.T.Reynolds[8]
-(Dryopteridaceae) Nothoperanema hendersonii (Beddome) Ching[9]
-(Ebenaceae) Diospyros hendersonii Ridl.[10]
-(Ericaceae) Cavendishia hendersonii Hoerold[11]
-(Fabaceae) Lupinus hendersonii Eastw.[12]
-(Gesneriaceae) Monophyllaea hendersonii (B.L.Burtt) A.Weber[13]
-(Grossulariaceae) Ribes hendersonii C.L.Hitchc.[14]
-(Lamiaceae) Clerodendrum hendersonii Moldenke[15]
-(Liliaceae) Hookera hendersonii Frye &amp; Rigg[16]
-(Myrtaceae) Corymbia hendersonii K.D.Hill &amp; L.A.S.Johnson[17]
-(Orchidaceae) Saccolabium hendersonii Carr[18]
-(Pandanaceae) Pandanus hendersonii H.St.John[19]
-(Papaveraceae) Corydalis hendersonii Hemsl. var. alto-cristata C.Y.Wu &amp; Z.Y.Su[20]
-(Poaceae) Stipa hendersonii (Vasey) Mehlenb.[21]
-(Polemoniaceae) Phlox hendersonii (E.E.Nelson) Cronquist[22]
-(Primulaceae) Primula hendersonii (A.Gray) A.R.Mast &amp; Reveal[23]
-(Scrophulariaceae) Synthyris hendersonii Pennell[24]
-(Thelypteridaceae) Sphaerostephanos hendersonii Holttum[25]
-(Thymelaeaceae) Daphne ×hendersonii Hodgkin ex C.D.Brickell &amp; B.Mathew[26]</t>
+(Apiaceae) Aletes hendersonii (J.M.Coult. &amp; Rose) W.A.Weber
+(Apocynaceae) Poacynum hendersonii Woodson
+(Araceae) Caladium hendersonii hort. ex Engl.
+(Aspleniaceae) ×Asplenophyllitis hendersonii (Houlston &amp; T.Moore) D.E.Mey.
+(Asteraceae) Antennaria hendersonii Piper
+(Boraginaceae) Lappula hendersonii Piper
+(Clethraceae) Clethra hendersonii Sleumer
+(Dilleniaceae) Hibbertia hendersonii S.T.Reynolds
+(Dryopteridaceae) Nothoperanema hendersonii (Beddome) Ching
+(Ebenaceae) Diospyros hendersonii Ridl.
+(Ericaceae) Cavendishia hendersonii Hoerold
+(Fabaceae) Lupinus hendersonii Eastw.
+(Gesneriaceae) Monophyllaea hendersonii (B.L.Burtt) A.Weber
+(Grossulariaceae) Ribes hendersonii C.L.Hitchc.
+(Lamiaceae) Clerodendrum hendersonii Moldenke
+(Liliaceae) Hookera hendersonii Frye &amp; Rigg
+(Myrtaceae) Corymbia hendersonii K.D.Hill &amp; L.A.S.Johnson
+(Orchidaceae) Saccolabium hendersonii Carr
+(Pandanaceae) Pandanus hendersonii H.St.John
+(Papaveraceae) Corydalis hendersonii Hemsl. var. alto-cristata C.Y.Wu &amp; Z.Y.Su
+(Poaceae) Stipa hendersonii (Vasey) Mehlenb.
+(Polemoniaceae) Phlox hendersonii (E.E.Nelson) Cronquist
+(Primulaceae) Primula hendersonii (A.Gray) A.R.Mast &amp; Reveal
+(Scrophulariaceae) Synthyris hendersonii Pennell
+(Thelypteridaceae) Sphaerostephanos hendersonii Holttum
+(Thymelaeaceae) Daphne ×hendersonii Hodgkin ex C.D.Brickell &amp; B.Mathew</t>
         </is>
       </c>
     </row>
